--- a/data/fylkesinndeling.xlsx
+++ b/data/fylkesinndeling.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t xml:space="preserve">fylkesnummer</t>
+    <t xml:space="preserve">fylke_nr</t>
   </si>
   <si>
     <t xml:space="preserve">fylkesnavn</t>
